--- a/04_memo/map04.xlsx
+++ b/04_memo/map04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29967D26-0AFB-4629-B119-675C2724CB75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46691599-11C4-477C-BD87-B9BC50D01F65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -712,7 +712,2027 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="273">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1153,7 +3173,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1207,111 +3227,111 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
       </c>
       <c r="T4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -1320,172 +3340,172 @@
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="S5" s="3">
+        <v>11</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="1">
-        <v>1</v>
+      <c r="Q6" s="3">
+        <v>11</v>
       </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11</v>
       </c>
       <c r="H7" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>11</v>
       </c>
       <c r="R7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1"/>
     </row>
@@ -1494,67 +3514,67 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
+      <c r="D8" s="1">
+        <v>11</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>11</v>
       </c>
       <c r="R8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
       </c>
       <c r="T8" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
         <v>1</v>
@@ -1562,34 +3582,34 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="G9" s="1">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="1">
@@ -1601,62 +3621,62 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <v>7</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>11</v>
       </c>
       <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="S9" s="1">
-        <v>0</v>
+      <c r="S9" s="4">
+        <v>2</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
       </c>
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1676,32 +3696,32 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1</v>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>11</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1"/>
     </row>
@@ -1713,25 +3733,25 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1748,26 +3768,26 @@
       <c r="N11" s="1">
         <v>0</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>11</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
         <v>1</v>
       </c>
       <c r="T11" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U11" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
         <v>1</v>
@@ -1779,28 +3799,28 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1820,65 +3840,65 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1</v>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>11</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
         <v>1</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1890,34 +3910,34 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>11</v>
       </c>
       <c r="R13" s="4">
         <v>0</v>
       </c>
-      <c r="S13" s="1">
-        <v>0</v>
+      <c r="S13" s="4">
+        <v>2</v>
       </c>
       <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -1926,67 +3946,67 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
+      <c r="D14" s="1">
+        <v>11</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>11</v>
       </c>
       <c r="H14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>11</v>
       </c>
       <c r="R14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
         <v>1</v>
       </c>
       <c r="T14" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
         <v>1</v>
@@ -1995,217 +4015,217 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>1</v>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>11</v>
       </c>
       <c r="R15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
         <v>1</v>
       </c>
-      <c r="Q16" s="1">
-        <v>1</v>
+      <c r="Q16" s="3">
+        <v>11</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U16" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F17" s="1">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>5</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="S17" s="3">
+        <v>11</v>
+      </c>
+      <c r="T17" s="3">
+        <v>11</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1"/>
     </row>
@@ -2214,69 +4234,69 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="3">
         <v>1</v>
       </c>
       <c r="T18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
         <v>1</v>
       </c>
       <c r="X18" s="1"/>
@@ -2292,7 +4312,786 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A4:W18">
+  <conditionalFormatting sqref="M4:N4 M6:N8 A18:K18 A17:D17 R6:S8 A12:C16 R10:S10 M10:N10 M9 E12:F16 H12:K16 Q4:T5 Q5:Q16">
+    <cfRule type="cellIs" dxfId="272" priority="261" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="262" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="263" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="264" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="265" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="266" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="267" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="268" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="269" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="270" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="271" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="272" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="273" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:L4 A6:C8 A5:D5 A10:C11 K9:L9 E6:F8 E10:F11 H11:K11 H6:L8 H10:L10">
+    <cfRule type="cellIs" dxfId="259" priority="248" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="249" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="250" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="251" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="252" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="253" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="255" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="256" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="257" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="258" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="260" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:N16 L18:N18 Q18:T18 O13:S13 R11:S16 U13:W13">
+    <cfRule type="cellIs" dxfId="246" priority="235" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="236" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="237" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="238" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="239" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="240" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="242" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="243" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="244" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="245" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="247" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:N5">
+    <cfRule type="cellIs" dxfId="233" priority="222" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="223" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="224" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="225" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="226" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="227" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="229" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="230" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="231" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="232" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="234" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:N17">
+    <cfRule type="cellIs" dxfId="220" priority="209" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="210" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="211" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="212" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="213" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="214" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="216" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="217" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="218" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="219" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q8 Q10:Q17">
+    <cfRule type="cellIs" dxfId="207" priority="183" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="184" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="185" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="186" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="187" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="188" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="189" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="190" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="191" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="193" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="195" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:P16 O18:P18">
+    <cfRule type="cellIs" dxfId="194" priority="170" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="171" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="172" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="173" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="174" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="175" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="178" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="179" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="180" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="182" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4 O6:P8 O10:P11">
+    <cfRule type="cellIs" dxfId="181" priority="157" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="158" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="159" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="160" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="161" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="162" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="165" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="166" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="167" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="cellIs" dxfId="168" priority="144" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="145" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="146" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="147" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="148" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="149" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="151" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="152" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="154" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="156" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:P17">
+    <cfRule type="cellIs" dxfId="155" priority="131" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="132" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="133" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="134" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="135" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="136" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="138" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="139" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="141" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:W18">
+    <cfRule type="cellIs" dxfId="142" priority="118" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="119" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="120" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="121" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="122" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="123" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="124" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="125" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="126" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="127" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="128" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="130" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:W8 U10:W11">
+    <cfRule type="cellIs" dxfId="129" priority="105" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="106" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="107" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="108" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="109" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="110" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="113" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="114" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:S9 U9:W9">
+    <cfRule type="cellIs" dxfId="116" priority="92" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="93" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="94" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="95" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="96" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="97" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="99" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="100" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="101" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:F9 H9:J9">
+    <cfRule type="cellIs" dxfId="103" priority="79" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="80" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="81" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="82" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="83" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="84" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="87" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="88" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="89" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:F5 H5:I5">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D16">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G17">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F17">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:T16">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:T17">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>

--- a/04_memo/map04.xlsx
+++ b/04_memo/map04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46691599-11C4-477C-BD87-B9BC50D01F65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E34C655-5056-4A00-A860-C7195A61E254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -712,108 +712,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="273">
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="260">
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -3173,7 +3072,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3352,7 +3251,7 @@
         <v>11</v>
       </c>
       <c r="T5" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U5" s="1">
         <v>1</v>
@@ -3373,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>11</v>
@@ -3400,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3427,7 +3326,7 @@
         <v>11</v>
       </c>
       <c r="U6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -4093,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1">
         <v>11</v>
@@ -4120,34 +4019,34 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>11</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>11</v>
+      </c>
+      <c r="U16" s="1">
         <v>7</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>11</v>
-      </c>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
-      <c r="S16" s="1">
-        <v>1</v>
-      </c>
-      <c r="T16" s="3">
-        <v>11</v>
-      </c>
-      <c r="U16" s="1">
-        <v>8</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -4168,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
         <v>11</v>
@@ -4313,576 +4212,576 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="M4:N4 M6:N8 A18:K18 A17:D17 R6:S8 A12:C16 R10:S10 M10:N10 M9 E12:F16 H12:K16 Q4:T5 Q5:Q16">
-    <cfRule type="cellIs" dxfId="272" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="261" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="262" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="263" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="264" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="265" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="266" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="267" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="269" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="270" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A6:C8 A5:D5 A10:C11 K9:L9 E6:F8 E10:F11 H11:K11 H6:L8 H10:L10">
-    <cfRule type="cellIs" dxfId="259" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="248" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="249" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="250" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="251" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="252" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="253" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="255" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="256" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="257" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="258" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="259" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="260" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:N16 L18:N18 Q18:T18 O13:S13 R11:S16 U13:W13">
-    <cfRule type="cellIs" dxfId="246" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="235" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="236" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="237" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="238" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="239" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="240" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="241" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="242" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="243" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="244" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="245" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="247" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:N5">
-    <cfRule type="cellIs" dxfId="233" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="222" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="223" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="224" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="225" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="226" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="227" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="228" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="229" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="230" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="231" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="232" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="233" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:N17">
-    <cfRule type="cellIs" dxfId="220" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="209" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="210" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="211" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="212" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="213" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="214" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="215" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="216" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="217" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="218" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="221" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q8 Q10:Q17">
-    <cfRule type="cellIs" dxfId="207" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="183" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="184" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="185" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="186" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="187" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="188" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="190" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="191" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="193" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="195" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:P16 O18:P18">
-    <cfRule type="cellIs" dxfId="194" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="170" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="171" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="172" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="173" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="174" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="177" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="179" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="180" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="181" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4 O6:P8 O10:P11">
-    <cfRule type="cellIs" dxfId="181" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="157" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="158" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="159" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="160" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="161" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="162" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="164" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="165" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="166" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="cellIs" dxfId="168" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="144" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="145" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="146" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="147" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="148" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="149" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="152" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="153" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="154" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="155" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="156" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:P17">
-    <cfRule type="cellIs" dxfId="155" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="131" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="132" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="133" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="134" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="135" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="141" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:W18">
-    <cfRule type="cellIs" dxfId="142" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="118" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="119" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="120" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="121" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="122" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="123" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="125" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="126" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="127" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="128" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:W8 U10:W11">
-    <cfRule type="cellIs" dxfId="129" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="106" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="108" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="113" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="114" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:S9 U9:W9">
-    <cfRule type="cellIs" dxfId="116" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="93" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="94" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="95" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="101" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:F9 H9:J9">
-    <cfRule type="cellIs" dxfId="103" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="82" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="84" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="87" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="89" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
